--- a/*2021-5-17 nonaffirm MLEs with large k and affirm2 hacking/2021-5-17_agg_rounded_annotated.xlsx
+++ b/*2021-5-17 nonaffirm MLEs with large k and affirm2 hacking/2021-5-17_agg_rounded_annotated.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmathur/Dropbox/Personal computer/Independent studies/2021/Sensitivity analysis for p-hacking (SAPH)/Code (git)/*2021-5-17 nonaffirm MLEs with large k and affirm2 hacking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B6D34526-7394-DE43-BAB1-2ABA78BC96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D4F65-7CAE-864D-B6E6-5BD8614E755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19880" yWindow="1520" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="agg_rounded" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>T2</t>
   </si>
@@ -151,12 +151,15 @@
   </si>
   <si>
     <t>Green: Scenarios I expected to be unbiased (because no hacked studies that contribute nonaffirmatives)</t>
+  </si>
+  <si>
+    <t>Purple cells: These illustrate the impact of T2&gt;0 on the empirical moments of the hacked, published nonaffirmatives. The empirical expectation of those studies decreases (compared to the matched scenario with Nmax=1) below the truncated normal expectation because now these studies over-represent the smaller mui's.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -293,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +679,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -679,6 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1033,12 +1043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G23" sqref="G23"/>
+      <pane xSplit="5" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3202,16 +3212,16 @@
       <c r="N21">
         <v>463.71</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="8">
         <v>-0.09</v>
       </c>
       <c r="P21">
         <v>-0.23</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="8">
         <v>-0.09</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="8">
         <v>-0.44</v>
       </c>
       <c r="S21">
@@ -3735,6 +3745,11 @@
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
